--- a/User_story/Capstone User stories Final.xlsx
+++ b/User_story/Capstone User stories Final.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CowUser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seantria/Desktop/3rd year uni/Semerter 2/IFB398 Capstone (phase 1)/group14/User_story/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -477,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,17 +652,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f>A13+1</f>
-        <v>12</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B16" t="s">

--- a/User_story/Capstone User stories Final.xlsx
+++ b/User_story/Capstone User stories Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Story ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Mark Assessments</t>
   </si>
   <si>
-    <t>Resubmit</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>Reflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>View groups (applied projects)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download CV/cover letter </t>
+  </si>
+  <si>
+    <t>Submit &amp; Resubmit</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -645,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -818,7 +827,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
@@ -830,7 +839,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -908,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -920,12 +929,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>A38+1</f>
         <v>35</v>
@@ -937,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>A40+1</f>
         <v>36</v>
@@ -949,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" ref="A42:A45" si="1">A40+1</f>
         <v>36</v>
@@ -961,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -973,40 +982,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46">
         <f>SUM(D1:D45)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D47">
         <f>61/18</f>
         <v>3.3888888888888888</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/User_story/Capstone User stories Final.xlsx
+++ b/User_story/Capstone User stories Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="-800" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>Story ID</t>
   </si>
@@ -35,9 +35,6 @@
     <t>User story</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Story point</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Reset password</t>
   </si>
   <si>
-    <t>View personal information</t>
-  </si>
-  <si>
     <t>Team application</t>
   </si>
   <si>
@@ -153,13 +147,136 @@
   </si>
   <si>
     <t>Submit &amp; Resubmit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to sign up with my personal information such as student number, password so that I can use them to sign in in the future</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to log out so that I can safely exit my account</t>
+  </si>
+  <si>
+    <t>View/edit personal information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a student, I want to be able to view/edit my personal information so that I can be able to make changes if necessary </t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to reset my password so that when I forget it, I can easily change it</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to form my own group and edit group members so that I can be with the people I’m most comfortable with and if anyone leaves, I can remove them</t>
+  </si>
+  <si>
+    <t>As a student, I want to be automatically be put into a group if I don’t end up forming my own group so that I don’t have to go through the hassle of sending requests to be in a group to the tutors</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to upload my CV and cover letters so that I can apply for the projects available</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to sing up my group for the fortnightly meetings and presentation so that my group is aware of the time and location of the meeting</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to rank applied projects on behalf of my group so that we can show our preferred projects in a ranked order</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able submit/edit online reflections/fortnightly and weekly reports so that I don’t have to continuously click on the link provided on the email</t>
+  </si>
+  <si>
+    <t>As a student, I want to be able to see a list of available projects  for application so that my group and I can decide on what projects we’re going to apply for</t>
+  </si>
+  <si>
+    <t>As a student, I want to have prefilled information in forms, surveys and online reflections so that I don’t have to continuously type in my group’s names and student numbers</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to create an account and be able to sign in so that I can use the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the unit coordinator, I want to be able to log out so that I can close the website securely </t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to view/edit my personal information so that I can be able to make changes if necessary</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to see student details so that I can see if there is an issue with student details</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to add and remove a student in case of late enrollment so that the student can be allocated to a team later and in case of unit withdrawal</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to sign up industry partners so that they can use the system</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to generate teams for those who haven’t signed up for a team yet so that no one gets left behind without a team</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to edit teams so that a student can be added and/or removed from the team</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to upload projects so that students can read through the project outline and apply for them later</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to see cover letters and CVs that students uploaded so that they can be marked and be used to rank teams later</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to rank teams for projects so that students will be allocated with projects</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to assign projects for teams so that the teams who did not get a project assigned can work on backup projects</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to mark groups/individuals for different assessment so that the marks can be released later</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to view/edit cohorts so that I can see which teams and students are in which cohort as well as which coordinator/tutor is working on which cohort</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be able to download all the information about Cohort 2 at the end of the semester so that the data can be removed from the system</t>
+  </si>
+  <si>
+    <t>As the unit coordinator, I want to be avle to see fortnightly reflection reports so that I know which teams are on track and which team are not</t>
+  </si>
+  <si>
+    <t>As the industrial partner, I want to be able to sign up/in so that I can upload a project and view group applications</t>
+  </si>
+  <si>
+    <t>As the industrial partner, I want to be able to log out so that I can safelt exit my personal profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the industrial partner, I want to be able to post information about our project and update changes to be viewed by capstone students. </t>
+  </si>
+  <si>
+    <t>As the industrial partner, I want to be able to prioritize the rank of teams so that I can show why I choose this team.</t>
+  </si>
+  <si>
+    <t>As the industrial partner, I want to be able to view an appropriate cover letter and resume so that I can know our project applicants in detail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the tutor, I want to check which groups I will teach so that I can know their information. </t>
+  </si>
+  <si>
+    <t>As the tutor, I want to download students’ assessments so that I can mark them.</t>
+  </si>
+  <si>
+    <t>As the tutor, I want to be able to put information about the groups have to fix for them after meeting so that I can check whether they fix what I say when next meeting.</t>
+  </si>
+  <si>
+    <t>As the tutor, I want to be able to mark my groups for different assessment so that I can mark all assessment and students can check their mark.</t>
+  </si>
+  <si>
+    <t>As the tutor, I want to remark assessment so that students get a score remarked.</t>
+  </si>
+  <si>
+    <t>As the tutor, I want to comment about assessment so that student understand what they are wrong about it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,19 +292,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,11 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,460 +607,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="158.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A44" si="0">A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A5:A38" si="0">A4+1</f>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A31+1</f>
         <v>29</v>
       </c>
       <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D35" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>A37+1</f>
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>29</v>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -948,11 +1183,14 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -960,11 +1198,14 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" ref="A42:A45" si="1">A40+1</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -972,11 +1213,14 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -984,53 +1228,45 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
       <c r="D45">
-        <v>1</v>
+        <f>SUM(D1:D44)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46">
-        <f>SUM(D1:D45)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D47">
         <f>61/18</f>
         <v>3.3888888888888888</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>38</v>
+      <c r="B49" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/User_story/Capstone User stories Final.xlsx
+++ b/User_story/Capstone User stories Final.xlsx
@@ -276,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +298,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -315,20 +331,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,14 +720,14 @@
     <col min="3" max="3" width="158.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -634,19 +735,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D3">
@@ -654,14 +756,14 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="5">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D4">
@@ -669,14 +771,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="5">
         <f t="shared" ref="A5:A44" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D5">
@@ -684,14 +786,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D6">
@@ -699,14 +801,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -714,14 +816,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D8">
@@ -729,14 +831,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D9">
@@ -744,14 +846,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D10">
@@ -759,14 +861,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D11">
@@ -774,14 +876,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D12">
@@ -789,14 +891,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D13">
@@ -804,14 +906,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D14">
@@ -819,20 +921,21 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="5">
         <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D16">
@@ -840,14 +943,14 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D17">
@@ -855,14 +958,14 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D18">
@@ -870,14 +973,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19">
@@ -885,14 +988,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D20">
@@ -900,14 +1003,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D21">
@@ -915,14 +1018,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="2">
@@ -930,14 +1033,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="2">
@@ -945,14 +1048,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="2">
@@ -960,14 +1063,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="2">
@@ -975,14 +1078,14 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="2">
@@ -990,14 +1093,14 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="2">
@@ -1005,14 +1108,14 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="2">
@@ -1020,14 +1123,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="2">
@@ -1035,14 +1138,14 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="2">
@@ -1050,14 +1153,14 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="2">
@@ -1065,20 +1168,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="5">
         <f>A31+1</f>
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D33">
@@ -1086,14 +1190,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D34">
@@ -1101,14 +1205,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="3">
@@ -1116,14 +1220,14 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D36">
@@ -1131,14 +1235,14 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D37">
@@ -1146,20 +1250,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="5">
         <f>A37+1</f>
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D39">
@@ -1167,14 +1272,14 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D40">
@@ -1182,14 +1287,14 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D41">
@@ -1197,14 +1302,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D42">
@@ -1212,14 +1317,14 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D43">
@@ -1227,14 +1332,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D44">
